--- a/docs/画面項目定義書/mo_virtual_machine_create.xlsx
+++ b/docs/画面項目定義書/mo_virtual_machine_create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271AA60F-1818-45A3-855A-F492CF2B3E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1DF2C-5872-40D0-8FB4-3B2111EDB315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>日本工学院</t>
   </si>
@@ -296,6 +296,188 @@
   </si>
   <si>
     <t>ネットワークエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OSイメージエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>なし（ミドルウェアエンティティより）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ストレージ設定</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシンタイプエンティティから取得し、表示</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バックアップ選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、新しい行を追加</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティより</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループで選択したセキュリティグループを行に追加する</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループエンティティから取得し、繰り返し表示</t>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップを表示させる</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認ポップアップ</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、仮想マシンを作成して確認ポップアップを非表示にし仮想マシンダッシュボードへ遷移</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、確認ポップアップを非表示</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヒヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -863,21 +1045,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Text Box 3">
+        <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446D1FE1-4AC1-4B0E-8A6D-36A763CDBED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E9DE5-7058-4BD3-923B-5BAEDD80FD06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +1069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6724650" y="8629650"/>
+          <a:off x="6724650" y="9239250"/>
           <a:ext cx="5848350" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1247,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1423,14 +1605,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
@@ -1453,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
@@ -1483,7 +1667,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
@@ -1557,7 +1741,9 @@
         <v>40</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
@@ -1570,7 +1756,9 @@
         <v>39</v>
       </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
@@ -1583,7 +1771,9 @@
         <v>40</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
@@ -1596,7 +1786,9 @@
         <v>39</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
@@ -1609,7 +1801,9 @@
         <v>44</v>
       </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
@@ -1622,7 +1816,9 @@
         <v>44</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
@@ -1635,7 +1831,9 @@
         <v>45</v>
       </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>31</v>
+      </c>
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
@@ -1648,7 +1846,9 @@
         <v>45</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="32"/>
       <c r="G29" s="36"/>
     </row>
@@ -1661,9 +1861,13 @@
         <v>41</v>
       </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
@@ -1674,7 +1878,9 @@
         <v>39</v>
       </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="F31" s="32"/>
       <c r="G31" s="36"/>
     </row>
@@ -1687,7 +1893,9 @@
         <v>39</v>
       </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="29"/>
+      <c r="E32" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="F32" s="32"/>
       <c r="G32" s="36"/>
     </row>
@@ -1700,11 +1908,13 @@
         <v>39</v>
       </c>
       <c r="D33" s="22"/>
-      <c r="E33" s="29"/>
+      <c r="E33" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="13" t="s">
         <v>37</v>
@@ -1713,11 +1923,15 @@
         <v>40</v>
       </c>
       <c r="D34" s="22"/>
-      <c r="E34" s="29"/>
+      <c r="E34" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G34" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="13" t="s">
         <v>33</v>
@@ -1728,7 +1942,9 @@
       <c r="D35" s="22"/>
       <c r="E35" s="29"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="36"/>
+      <c r="G35" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
@@ -1741,23 +1957,59 @@
       <c r="D36" s="22"/>
       <c r="E36" s="29"/>
       <c r="F36" s="32"/>
+      <c r="G36" s="36" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
       <c r="E37" s="29"/>
       <c r="F37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
